--- a/fuction_ensemble_2/redes-ensemble-s/Teste01/content/results/metrics_16_3.xlsx
+++ b/fuction_ensemble_2/redes-ensemble-s/Teste01/content/results/metrics_16_3.xlsx
@@ -518,661 +518,661 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>model_16_3_24</t>
+          <t>model_16_3_0</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9998991045924054</v>
+        <v>0.9999911475978447</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9989977949740528</v>
+        <v>0.9991050381053288</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9994578645387593</v>
+        <v>0.9999626817613565</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9994105566568392</v>
+        <v>0.9999969221167055</v>
       </c>
       <c r="F2" t="n">
-        <v>0.9996515226759428</v>
+        <v>0.999980100715405</v>
       </c>
       <c r="G2" t="n">
-        <v>9.418143419300375e-05</v>
+        <v>8.263328836443779e-06</v>
       </c>
       <c r="H2" t="n">
-        <v>0.0009355144000053387</v>
+        <v>0.0008354076443886224</v>
       </c>
       <c r="I2" t="n">
-        <v>0.000387427193092939</v>
+        <v>3.806218146854155e-05</v>
       </c>
       <c r="J2" t="n">
-        <v>0.000201008957881134</v>
+        <v>3.105863851827505e-06</v>
       </c>
       <c r="K2" t="n">
-        <v>0.0002942180754870365</v>
+        <v>2.058402266018452e-05</v>
       </c>
       <c r="L2" t="n">
-        <v>0.0005102629118604113</v>
+        <v>0.0002264236711867637</v>
       </c>
       <c r="M2" t="n">
-        <v>0.009704711958270773</v>
+        <v>0.002874600639470426</v>
       </c>
       <c r="N2" t="n">
-        <v>1.000269054420252</v>
+        <v>1.000023606405748</v>
       </c>
       <c r="O2" t="n">
-        <v>0.01011786163785758</v>
+        <v>0.002996978339936341</v>
       </c>
       <c r="P2" t="n">
-        <v>84.54057497010568</v>
+        <v>89.40736608956689</v>
       </c>
       <c r="Q2" t="n">
-        <v>124.7634771907563</v>
+        <v>129.6302683102175</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>model_16_3_23</t>
+          <t>model_16_3_1</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9998991562549138</v>
+        <v>0.9999920041558984</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9989970463087782</v>
+        <v>0.99910366263786</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9994569994297506</v>
+        <v>0.9999659021094975</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9994133546223057</v>
+        <v>0.9999966874111882</v>
       </c>
       <c r="F3" t="n">
-        <v>0.999651721607055</v>
+        <v>0.9999815738770962</v>
       </c>
       <c r="G3" t="n">
-        <v>9.413320950913358e-05</v>
+        <v>7.463769491874863e-06</v>
       </c>
       <c r="H3" t="n">
-        <v>0.0009362132461766739</v>
+        <v>0.0008366915828947142</v>
       </c>
       <c r="I3" t="n">
-        <v>0.0003880454274253379</v>
+        <v>3.477763536478169e-05</v>
       </c>
       <c r="J3" t="n">
-        <v>0.0002000548099903452</v>
+        <v>3.342703040514164e-06</v>
       </c>
       <c r="K3" t="n">
-        <v>0.0002940501187078415</v>
+        <v>1.906016920264792e-05</v>
       </c>
       <c r="L3" t="n">
-        <v>0.0005114008454748375</v>
+        <v>0.0002167208326791978</v>
       </c>
       <c r="M3" t="n">
-        <v>0.009702227038630542</v>
+        <v>0.002731990024117011</v>
       </c>
       <c r="N3" t="n">
-        <v>1.000268916653563</v>
+        <v>1.000021322250938</v>
       </c>
       <c r="O3" t="n">
-        <v>0.01011527093004378</v>
+        <v>0.00284829649544266</v>
       </c>
       <c r="P3" t="n">
-        <v>84.54159931285409</v>
+        <v>89.61089995509906</v>
       </c>
       <c r="Q3" t="n">
-        <v>124.7645015335047</v>
+        <v>129.8338021757497</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>model_16_3_22</t>
+          <t>model_16_3_2</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9998992234997068</v>
+        <v>0.9999926992670658</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9989962460900467</v>
+        <v>0.9991023814842022</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9994561444607584</v>
+        <v>0.999968532325481</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9994164561412544</v>
+        <v>0.999996476472498</v>
       </c>
       <c r="F4" t="n">
-        <v>0.9996519861328228</v>
+        <v>0.9999827676942769</v>
       </c>
       <c r="G4" t="n">
-        <v>9.407043944659855e-05</v>
+        <v>6.814913728929273e-06</v>
       </c>
       <c r="H4" t="n">
-        <v>0.0009369602152369362</v>
+        <v>0.000837887483598195</v>
       </c>
       <c r="I4" t="n">
-        <v>0.0003886564153804442</v>
+        <v>3.209498576220556e-05</v>
       </c>
       <c r="J4" t="n">
-        <v>0.000198997145841708</v>
+        <v>3.555559341375273e-06</v>
       </c>
       <c r="K4" t="n">
-        <v>0.0002938267806110761</v>
+        <v>1.782527255179042e-05</v>
       </c>
       <c r="L4" t="n">
-        <v>0.0005126574685095177</v>
+        <v>0.0002078580626749844</v>
       </c>
       <c r="M4" t="n">
-        <v>0.00969899167164291</v>
+        <v>0.002610538972880749</v>
       </c>
       <c r="N4" t="n">
-        <v>1.000268737334115</v>
+        <v>1.000019468621158</v>
       </c>
       <c r="O4" t="n">
-        <v>0.01011189782678535</v>
+        <v>0.002721675021516935</v>
       </c>
       <c r="P4" t="n">
-        <v>84.54293340101256</v>
+        <v>89.79279430378762</v>
       </c>
       <c r="Q4" t="n">
-        <v>124.7658356216632</v>
+        <v>130.0156965244383</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>model_16_3_21</t>
+          <t>model_16_3_3</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9998992874208144</v>
+        <v>0.999993266335392</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9989953319597265</v>
+        <v>0.9991011804997167</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9994551441122459</v>
+        <v>0.9999706920662961</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9994198407033814</v>
+        <v>0.9999962892491258</v>
       </c>
       <c r="F5" t="n">
-        <v>0.9996522462934894</v>
+        <v>0.9999837411331036</v>
       </c>
       <c r="G5" t="n">
-        <v>9.401077189846208e-05</v>
+        <v>6.285580337916873e-06</v>
       </c>
       <c r="H5" t="n">
-        <v>0.0009378135157651625</v>
+        <v>0.0008390085498982103</v>
       </c>
       <c r="I5" t="n">
-        <v>0.0003893712961510325</v>
+        <v>2.989219029768033e-05</v>
       </c>
       <c r="J5" t="n">
-        <v>0.0001978429597542083</v>
+        <v>3.744484732123362e-06</v>
       </c>
       <c r="K5" t="n">
-        <v>0.0002936071279526204</v>
+        <v>1.681833751490184e-05</v>
       </c>
       <c r="L5" t="n">
-        <v>0.0005140500175934967</v>
+        <v>0.0001997172082916236</v>
       </c>
       <c r="M5" t="n">
-        <v>0.00969591521716553</v>
+        <v>0.002507105968625354</v>
       </c>
       <c r="N5" t="n">
-        <v>1.000268566877828</v>
+        <v>1.000017956438955</v>
       </c>
       <c r="O5" t="n">
-        <v>0.01010869040127173</v>
+        <v>0.002613838660134552</v>
       </c>
       <c r="P5" t="n">
-        <v>84.54420237519049</v>
+        <v>89.95450476641049</v>
       </c>
       <c r="Q5" t="n">
-        <v>124.7671045958411</v>
+        <v>130.1774069870611</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>model_16_3_20</t>
+          <t>model_16_3_4</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9998993610308684</v>
+        <v>0.9999937327263918</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9989943366300468</v>
+        <v>0.9991000453595962</v>
       </c>
       <c r="D6" t="n">
-        <v>0.9994540747730947</v>
+        <v>0.9999725019440968</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9994235814736445</v>
+        <v>0.9999961117167364</v>
       </c>
       <c r="F6" t="n">
-        <v>0.9996525491935297</v>
+        <v>0.9999845468152264</v>
       </c>
       <c r="G6" t="n">
-        <v>9.394206014414977e-05</v>
+        <v>5.850224811734915e-06</v>
       </c>
       <c r="H6" t="n">
-        <v>0.0009387426123312538</v>
+        <v>0.000840068153373838</v>
       </c>
       <c r="I6" t="n">
-        <v>0.000390135479819999</v>
+        <v>2.804623240166881e-05</v>
       </c>
       <c r="J6" t="n">
-        <v>0.0001965673013877652</v>
+        <v>3.923631040795344e-06</v>
       </c>
       <c r="K6" t="n">
-        <v>0.0002933513906038821</v>
+        <v>1.598493172123208e-05</v>
       </c>
       <c r="L6" t="n">
-        <v>0.0005155691015629534</v>
+        <v>0.0001922977285361094</v>
       </c>
       <c r="M6" t="n">
-        <v>0.009692371234334236</v>
+        <v>0.002418723798149535</v>
       </c>
       <c r="N6" t="n">
-        <v>1.000268370584351</v>
+        <v>1.000016712729622</v>
       </c>
       <c r="O6" t="n">
-        <v>0.01010499554375425</v>
+        <v>0.002521693877685264</v>
       </c>
       <c r="P6" t="n">
-        <v>84.54566469436125</v>
+        <v>90.098060936205</v>
       </c>
       <c r="Q6" t="n">
-        <v>124.7685669150119</v>
+        <v>130.3209631568556</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>model_16_3_19</t>
+          <t>model_16_3_5</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9998994420354351</v>
+        <v>0.999994111005992</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9989932447827417</v>
+        <v>0.9990989966845555</v>
       </c>
       <c r="D7" t="n">
-        <v>0.9994529583834728</v>
+        <v>0.9999739722438663</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9994276038751569</v>
+        <v>0.9999959614895927</v>
       </c>
       <c r="F7" t="n">
-        <v>0.9996528890573115</v>
+        <v>0.9999851984027334</v>
       </c>
       <c r="G7" t="n">
-        <v>9.386644593677664e-05</v>
+        <v>5.497117409485894e-06</v>
       </c>
       <c r="H7" t="n">
-        <v>0.0009397618038639894</v>
+        <v>0.0008410470454927744</v>
       </c>
       <c r="I7" t="n">
-        <v>0.0003909332872472955</v>
+        <v>2.654662205911985e-05</v>
       </c>
       <c r="J7" t="n">
-        <v>0.0001951956025712933</v>
+        <v>4.075223876032954e-06</v>
       </c>
       <c r="K7" t="n">
-        <v>0.0002930644449092944</v>
+        <v>1.53109229675764e-05</v>
       </c>
       <c r="L7" t="n">
-        <v>0.0005172476972942209</v>
+        <v>0.000185472179555587</v>
       </c>
       <c r="M7" t="n">
-        <v>0.00968846974174852</v>
+        <v>0.002344593229002825</v>
       </c>
       <c r="N7" t="n">
-        <v>1.000268154572173</v>
+        <v>1.000015703984021</v>
       </c>
       <c r="O7" t="n">
-        <v>0.01010092795655195</v>
+        <v>0.002444407416738545</v>
       </c>
       <c r="P7" t="n">
-        <v>84.54727514775416</v>
+        <v>90.22257342096864</v>
       </c>
       <c r="Q7" t="n">
-        <v>124.7701773684048</v>
+        <v>130.4454756416193</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>model_16_3_18</t>
+          <t>model_16_3_6</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.9998995295853658</v>
+        <v>0.9999944210319018</v>
       </c>
       <c r="C8" t="n">
-        <v>0.9989920470112967</v>
+        <v>0.9990980212704257</v>
       </c>
       <c r="D8" t="n">
-        <v>0.9994517400669498</v>
+        <v>0.9999751984112603</v>
       </c>
       <c r="E8" t="n">
-        <v>0.9994320132028899</v>
+        <v>0.9999958209727172</v>
       </c>
       <c r="F8" t="n">
-        <v>0.9996532639250458</v>
+        <v>0.9999857343684881</v>
       </c>
       <c r="G8" t="n">
-        <v>9.378472191958281e-05</v>
+        <v>5.20772183128143e-06</v>
       </c>
       <c r="H8" t="n">
-        <v>0.0009408798709317937</v>
+        <v>0.0008419575517672926</v>
       </c>
       <c r="I8" t="n">
-        <v>0.0003918039348705705</v>
+        <v>2.529601089529365e-05</v>
       </c>
       <c r="J8" t="n">
-        <v>0.0001936919561516014</v>
+        <v>4.217018168571559e-06</v>
       </c>
       <c r="K8" t="n">
-        <v>0.000292747945511086</v>
+        <v>1.475651453193261e-05</v>
       </c>
       <c r="L8" t="n">
-        <v>0.0005191053589512034</v>
+        <v>0.0001792711707536339</v>
       </c>
       <c r="M8" t="n">
-        <v>0.009684251231746458</v>
+        <v>0.002282043345618446</v>
       </c>
       <c r="N8" t="n">
-        <v>1.000267921105691</v>
+        <v>1.000014877248262</v>
       </c>
       <c r="O8" t="n">
-        <v>0.01009652985584559</v>
+        <v>0.002379194655322384</v>
       </c>
       <c r="P8" t="n">
-        <v>84.54901718908104</v>
+        <v>90.33073613259359</v>
       </c>
       <c r="Q8" t="n">
-        <v>124.7719194097317</v>
+        <v>130.5536383532442</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>model_16_3_17</t>
+          <t>model_16_3_7</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.9998996200767496</v>
+        <v>0.9999946721794911</v>
       </c>
       <c r="C9" t="n">
-        <v>0.9989907163129527</v>
+        <v>0.9990971335331363</v>
       </c>
       <c r="D9" t="n">
-        <v>0.9994504425088713</v>
+        <v>0.9999761940896789</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9994367391920513</v>
+        <v>0.9999957023926674</v>
       </c>
       <c r="F9" t="n">
-        <v>0.9996536692073048</v>
+        <v>0.9999861674023746</v>
       </c>
       <c r="G9" t="n">
-        <v>9.370025218482677e-05</v>
+        <v>4.973286580784456e-06</v>
       </c>
       <c r="H9" t="n">
-        <v>0.0009421220194250536</v>
+        <v>0.0008427862155597256</v>
       </c>
       <c r="I9" t="n">
-        <v>0.0003927312110223281</v>
+        <v>2.428048352764854e-05</v>
       </c>
       <c r="J9" t="n">
-        <v>0.0001920803234691092</v>
+        <v>4.336676211053874e-06</v>
       </c>
       <c r="K9" t="n">
-        <v>0.0002924057672457186</v>
+        <v>1.43085798693512e-05</v>
       </c>
       <c r="L9" t="n">
-        <v>0.000521148203058243</v>
+        <v>0.0001736213406782131</v>
       </c>
       <c r="M9" t="n">
-        <v>0.00967988905849787</v>
+        <v>0.002230086675621478</v>
       </c>
       <c r="N9" t="n">
-        <v>1.000267679795334</v>
+        <v>1.000014207521357</v>
       </c>
       <c r="O9" t="n">
-        <v>0.01009198197585086</v>
+        <v>0.002325026082318511</v>
       </c>
       <c r="P9" t="n">
-        <v>84.55081935463323</v>
+        <v>90.42285930509502</v>
       </c>
       <c r="Q9" t="n">
-        <v>124.7737215752839</v>
+        <v>130.6457615257457</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>model_16_3_16</t>
+          <t>model_16_3_8</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.9998997152769541</v>
+        <v>0.9999948793907101</v>
       </c>
       <c r="C10" t="n">
-        <v>0.9989892562955364</v>
+        <v>0.9990963058275781</v>
       </c>
       <c r="D10" t="n">
-        <v>0.9994490368380012</v>
+        <v>0.9999770383034909</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9994418612826387</v>
+        <v>0.9999955892544533</v>
       </c>
       <c r="F10" t="n">
-        <v>0.999654108728529</v>
+        <v>0.9999865284180401</v>
       </c>
       <c r="G10" t="n">
-        <v>9.36113869727662e-05</v>
+        <v>4.779864003359813e-06</v>
       </c>
       <c r="H10" t="n">
-        <v>0.0009434848815957793</v>
+        <v>0.0008435588423661621</v>
       </c>
       <c r="I10" t="n">
-        <v>0.0003937357480034316</v>
+        <v>2.341944022876127e-05</v>
       </c>
       <c r="J10" t="n">
-        <v>0.0001903336143017789</v>
+        <v>4.450842947057679e-06</v>
       </c>
       <c r="K10" t="n">
-        <v>0.0002920346811526053</v>
+        <v>1.393514158790948e-05</v>
       </c>
       <c r="L10" t="n">
-        <v>0.0005233752738635411</v>
+        <v>0.000168506426149669</v>
       </c>
       <c r="M10" t="n">
-        <v>0.009675297771788018</v>
+        <v>0.002186290008978638</v>
       </c>
       <c r="N10" t="n">
-        <v>1.000267425928122</v>
+        <v>1.000013654958106</v>
       </c>
       <c r="O10" t="n">
-        <v>0.0100871952285605</v>
+        <v>0.002279364900905087</v>
       </c>
       <c r="P10" t="n">
-        <v>84.55271705237647</v>
+        <v>90.50219692609122</v>
       </c>
       <c r="Q10" t="n">
-        <v>124.7756192730271</v>
+        <v>130.7250991467419</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>model_16_3_15</t>
+          <t>model_16_3_9</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.999899820314881</v>
+        <v>0.9999950474579137</v>
       </c>
       <c r="C11" t="n">
-        <v>0.9989876512015723</v>
+        <v>0.9990955463978271</v>
       </c>
       <c r="D11" t="n">
-        <v>0.9994475979691917</v>
+        <v>0.9999777279827216</v>
       </c>
       <c r="E11" t="n">
-        <v>0.9994473528860142</v>
+        <v>0.999995489587635</v>
       </c>
       <c r="F11" t="n">
-        <v>0.9996546088239124</v>
+        <v>0.9999868198184875</v>
       </c>
       <c r="G11" t="n">
-        <v>9.351333867865183e-05</v>
+        <v>4.622980646075969e-06</v>
       </c>
       <c r="H11" t="n">
-        <v>0.0009449831663557714</v>
+        <v>0.0008442677367037043</v>
       </c>
       <c r="I11" t="n">
-        <v>0.0003947640092849334</v>
+        <v>2.271601217360586e-05</v>
       </c>
       <c r="J11" t="n">
-        <v>0.0001884608957709408</v>
+        <v>4.551415820917982e-06</v>
       </c>
       <c r="K11" t="n">
-        <v>0.0002916124525279371</v>
+        <v>1.363371399726192e-05</v>
       </c>
       <c r="L11" t="n">
-        <v>0.00052580464724682</v>
+        <v>0.0001638477480463509</v>
       </c>
       <c r="M11" t="n">
-        <v>0.009670229504962735</v>
+        <v>0.002150111775251689</v>
       </c>
       <c r="N11" t="n">
-        <v>1.000267145826984</v>
+        <v>1.000013206778897</v>
       </c>
       <c r="O11" t="n">
-        <v>0.0100819111951237</v>
+        <v>0.002241646484869114</v>
       </c>
       <c r="P11" t="n">
-        <v>84.55481294435967</v>
+        <v>90.56894179881905</v>
       </c>
       <c r="Q11" t="n">
-        <v>124.7777151650103</v>
+        <v>130.7918440194697</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>model_16_3_14</t>
+          <t>model_16_3_10</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.999899944061966</v>
+        <v>0.9999951859047793</v>
       </c>
       <c r="C12" t="n">
-        <v>0.9989859138697457</v>
+        <v>0.9990948539181025</v>
       </c>
       <c r="D12" t="n">
-        <v>0.9994461487584447</v>
+        <v>0.9999783092627047</v>
       </c>
       <c r="E12" t="n">
-        <v>0.9994533387724269</v>
+        <v>0.999995398760758</v>
       </c>
       <c r="F12" t="n">
-        <v>0.9996552043640003</v>
+        <v>0.9999870620895398</v>
       </c>
       <c r="G12" t="n">
-        <v>9.33978262066627e-05</v>
+        <v>4.493746574185288e-06</v>
       </c>
       <c r="H12" t="n">
-        <v>0.0009466048893559083</v>
+        <v>0.0008449141361302653</v>
       </c>
       <c r="I12" t="n">
-        <v>0.0003957996612428629</v>
+        <v>2.212314431570388e-05</v>
       </c>
       <c r="J12" t="n">
-        <v>0.0001864196193636562</v>
+        <v>4.643068390855881e-06</v>
       </c>
       <c r="K12" t="n">
-        <v>0.0002911096403032595</v>
+        <v>1.338310635327988e-05</v>
       </c>
       <c r="L12" t="n">
-        <v>0.000528412437184384</v>
+        <v>0.0001596163218539301</v>
       </c>
       <c r="M12" t="n">
-        <v>0.009664255077690297</v>
+        <v>0.002119845884536253</v>
       </c>
       <c r="N12" t="n">
-        <v>1.000266815834757</v>
+        <v>1.000012837587255</v>
       </c>
       <c r="O12" t="n">
-        <v>0.01007568242411351</v>
+        <v>0.00221009211252689</v>
       </c>
       <c r="P12" t="n">
-        <v>84.55728497403784</v>
+        <v>90.62564755565666</v>
       </c>
       <c r="Q12" t="n">
-        <v>124.7801871946885</v>
+        <v>130.8485497763073</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>model_16_3_13</t>
+          <t>model_16_3_11</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.9999000421292561</v>
+        <v>0.9999952980562711</v>
       </c>
       <c r="C13" t="n">
-        <v>0.9989839681047089</v>
+        <v>0.9990942245706343</v>
       </c>
       <c r="D13" t="n">
-        <v>0.9994444693640859</v>
+        <v>0.9999787823074177</v>
       </c>
       <c r="E13" t="n">
-        <v>0.9994595505487625</v>
+        <v>0.9999953242340487</v>
       </c>
       <c r="F13" t="n">
-        <v>0.9996557481066962</v>
+        <v>0.9999872589508489</v>
       </c>
       <c r="G13" t="n">
-        <v>9.330628469597876e-05</v>
+        <v>4.389058079450089e-06</v>
       </c>
       <c r="H13" t="n">
-        <v>0.0009484211756084937</v>
+        <v>0.0008455016043666111</v>
       </c>
       <c r="I13" t="n">
-        <v>0.0003969998097094919</v>
+        <v>2.16406694090597e-05</v>
       </c>
       <c r="J13" t="n">
-        <v>0.0001843013111288266</v>
+        <v>4.71827261085943e-06</v>
       </c>
       <c r="K13" t="n">
-        <v>0.0002906505604191592</v>
+        <v>1.317947100995957e-05</v>
       </c>
       <c r="L13" t="n">
-        <v>0.0005313039004829732</v>
+        <v>0.0001557656107382681</v>
       </c>
       <c r="M13" t="n">
-        <v>0.009659517829373201</v>
+        <v>0.002095007894841947</v>
       </c>
       <c r="N13" t="n">
-        <v>1.000266554321984</v>
+        <v>1.000012538516611</v>
       </c>
       <c r="O13" t="n">
-        <v>0.0100707435013281</v>
+        <v>0.002184196718189572</v>
       </c>
       <c r="P13" t="n">
-        <v>84.55924618458809</v>
+        <v>90.67279182877664</v>
       </c>
       <c r="Q13" t="n">
-        <v>124.7821484052387</v>
+        <v>130.8956940494272</v>
       </c>
     </row>
     <row r="14">
@@ -1182,712 +1182,712 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.9999001575617512</v>
+        <v>0.9999953904942942</v>
       </c>
       <c r="C14" t="n">
-        <v>0.9989818672277553</v>
+        <v>0.9990936469621484</v>
       </c>
       <c r="D14" t="n">
-        <v>0.9994428232511574</v>
+        <v>0.9999791826523881</v>
       </c>
       <c r="E14" t="n">
-        <v>0.9994662322087924</v>
+        <v>0.9999952528355832</v>
       </c>
       <c r="F14" t="n">
-        <v>0.9996564008285074</v>
+        <v>0.999987421496788</v>
       </c>
       <c r="G14" t="n">
-        <v>9.319853352872501e-05</v>
+        <v>4.302771242497516e-06</v>
       </c>
       <c r="H14" t="n">
-        <v>0.0009503822520269164</v>
+        <v>0.000846040776534165</v>
       </c>
       <c r="I14" t="n">
-        <v>0.0003981761742106559</v>
+        <v>2.123234352160186e-05</v>
       </c>
       <c r="J14" t="n">
-        <v>0.0001820227655567736</v>
+        <v>4.790320148667976e-06</v>
       </c>
       <c r="K14" t="n">
-        <v>0.0002900994698837148</v>
+        <v>1.301133183513492e-05</v>
       </c>
       <c r="L14" t="n">
-        <v>0.0005344383676260081</v>
+        <v>0.0001522707876765186</v>
       </c>
       <c r="M14" t="n">
-        <v>0.00965393875724955</v>
+        <v>0.002074312233608411</v>
       </c>
       <c r="N14" t="n">
-        <v>1.000266246501997</v>
+        <v>1.000012292015215</v>
       </c>
       <c r="O14" t="n">
-        <v>0.01006492691655387</v>
+        <v>0.002162619999811399</v>
       </c>
       <c r="P14" t="n">
-        <v>84.56155714213371</v>
+        <v>90.71250253570032</v>
       </c>
       <c r="Q14" t="n">
-        <v>124.7844593627843</v>
+        <v>130.9354047563509</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>model_16_3_11</t>
+          <t>model_16_3_13</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.9999002788718723</v>
+        <v>0.9999954656099161</v>
       </c>
       <c r="C15" t="n">
-        <v>0.9989795606791151</v>
+        <v>0.9990931222527707</v>
       </c>
       <c r="D15" t="n">
-        <v>0.9994411447476924</v>
+        <v>0.9999795160214361</v>
       </c>
       <c r="E15" t="n">
-        <v>0.999473392942939</v>
+        <v>0.9999951910834532</v>
       </c>
       <c r="F15" t="n">
-        <v>0.9996571365923279</v>
+        <v>0.9999875557284924</v>
       </c>
       <c r="G15" t="n">
-        <v>9.308529585558804e-05</v>
+        <v>4.232654106594881e-06</v>
       </c>
       <c r="H15" t="n">
-        <v>0.0009525353139366652</v>
+        <v>0.0008465305697062136</v>
       </c>
       <c r="I15" t="n">
-        <v>0.0003993756860163471</v>
+        <v>2.089232872820522e-05</v>
       </c>
       <c r="J15" t="n">
-        <v>0.0001795808485766357</v>
+        <v>4.85263365767333e-06</v>
       </c>
       <c r="K15" t="n">
-        <v>0.0002894782672964914</v>
+        <v>1.287248119293928e-05</v>
       </c>
       <c r="L15" t="n">
-        <v>0.0005377903095342795</v>
+        <v>0.0001491357862309553</v>
       </c>
       <c r="M15" t="n">
-        <v>0.009648072131549808</v>
+        <v>0.002057341514332242</v>
       </c>
       <c r="N15" t="n">
-        <v>1.000265923008341</v>
+        <v>1.00001209170689</v>
       </c>
       <c r="O15" t="n">
-        <v>0.0100588105364525</v>
+        <v>0.002144926801881411</v>
       </c>
       <c r="P15" t="n">
-        <v>84.56398865081503</v>
+        <v>90.74536262660385</v>
       </c>
       <c r="Q15" t="n">
-        <v>124.7868908714657</v>
+        <v>130.9682648472545</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>model_16_3_10</t>
+          <t>model_16_3_14</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.9999004118528343</v>
+        <v>0.9999955276857565</v>
       </c>
       <c r="C16" t="n">
-        <v>0.9989770795567283</v>
+        <v>0.9990926478603426</v>
       </c>
       <c r="D16" t="n">
-        <v>0.999439538796441</v>
+        <v>0.999979789423073</v>
       </c>
       <c r="E16" t="n">
-        <v>0.9994808866791589</v>
+        <v>0.999995137795345</v>
       </c>
       <c r="F16" t="n">
-        <v>0.9996579703115707</v>
+        <v>0.9999876645244937</v>
       </c>
       <c r="G16" t="n">
-        <v>9.296116396478566e-05</v>
+        <v>4.174709034403751e-06</v>
       </c>
       <c r="H16" t="n">
-        <v>0.0009548513327760328</v>
+        <v>0.0008469733942144238</v>
       </c>
       <c r="I16" t="n">
-        <v>0.0004005233497093741</v>
+        <v>2.061347680226235e-05</v>
       </c>
       <c r="J16" t="n">
-        <v>0.0001770253729305507</v>
+        <v>4.906406199805502e-06</v>
       </c>
       <c r="K16" t="n">
-        <v>0.0002887743613199624</v>
+        <v>1.275994150103393e-05</v>
       </c>
       <c r="L16" t="n">
-        <v>0.0005413579448921795</v>
+        <v>0.0001462728454265286</v>
       </c>
       <c r="M16" t="n">
-        <v>0.009641636996111484</v>
+        <v>0.002043210472370321</v>
       </c>
       <c r="N16" t="n">
-        <v>1.000265568392442</v>
+        <v>1.000011926171316</v>
       </c>
       <c r="O16" t="n">
-        <v>0.010052101443976</v>
+        <v>0.002130194172207882</v>
       </c>
       <c r="P16" t="n">
-        <v>84.56665748760649</v>
+        <v>90.77293178889693</v>
       </c>
       <c r="Q16" t="n">
-        <v>124.7895597082571</v>
+        <v>130.9958340095475</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>model_16_3_9</t>
+          <t>model_16_3_15</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.9999005897957395</v>
+        <v>0.9999955780147405</v>
       </c>
       <c r="C17" t="n">
-        <v>0.9989744194720567</v>
+        <v>0.9990922132195543</v>
       </c>
       <c r="D17" t="n">
-        <v>0.9994381823694822</v>
+        <v>0.9999800223506805</v>
       </c>
       <c r="E17" t="n">
-        <v>0.9994890606052571</v>
+        <v>0.9999950871780005</v>
       </c>
       <c r="F17" t="n">
-        <v>0.9996590469981851</v>
+        <v>0.999987754669364</v>
       </c>
       <c r="G17" t="n">
-        <v>9.279506207353505e-05</v>
+        <v>4.12772913708857e-06</v>
       </c>
       <c r="H17" t="n">
-        <v>0.0009573344050528668</v>
+        <v>0.0008473791123116702</v>
       </c>
       <c r="I17" t="n">
-        <v>0.0004014926954298302</v>
+        <v>2.037590575957777e-05</v>
       </c>
       <c r="J17" t="n">
-        <v>0.0001742379424067198</v>
+        <v>4.957483698675872e-06</v>
       </c>
       <c r="K17" t="n">
-        <v>0.000287865318918275</v>
+        <v>1.266669472912682e-05</v>
       </c>
       <c r="L17" t="n">
-        <v>0.0005451283402790827</v>
+        <v>0.0001436885624907152</v>
       </c>
       <c r="M17" t="n">
-        <v>0.009633019364328874</v>
+        <v>0.002031681357174045</v>
       </c>
       <c r="N17" t="n">
-        <v>1.000265093878028</v>
+        <v>1.000011791960692</v>
       </c>
       <c r="O17" t="n">
-        <v>0.01004311694176745</v>
+        <v>0.002118174238709142</v>
       </c>
       <c r="P17" t="n">
-        <v>84.57023426000467</v>
+        <v>90.79556629590641</v>
       </c>
       <c r="Q17" t="n">
-        <v>124.7931364806553</v>
+        <v>131.018468516557</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>model_16_3_8</t>
+          <t>model_16_3_16</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.9999007362727492</v>
+        <v>0.9999956200599946</v>
       </c>
       <c r="C18" t="n">
-        <v>0.9989714593686683</v>
+        <v>0.9990918245270682</v>
       </c>
       <c r="D18" t="n">
-        <v>0.9994367179586924</v>
+        <v>0.9999802191272872</v>
       </c>
       <c r="E18" t="n">
-        <v>0.9994974353098514</v>
+        <v>0.9999950425283021</v>
       </c>
       <c r="F18" t="n">
-        <v>0.999660118532453</v>
+        <v>0.9999878299024623</v>
       </c>
       <c r="G18" t="n">
-        <v>9.265833221456957e-05</v>
+        <v>4.088481737896318e-06</v>
       </c>
       <c r="H18" t="n">
-        <v>0.0009600975316323416</v>
+        <v>0.000847741939685833</v>
       </c>
       <c r="I18" t="n">
-        <v>0.0004025392098204356</v>
+        <v>2.017520639152423e-05</v>
       </c>
       <c r="J18" t="n">
-        <v>0.0001713820434257884</v>
+        <v>5.002539300605711e-06</v>
       </c>
       <c r="K18" t="n">
-        <v>0.000286960626623112</v>
+        <v>1.258887284606497e-05</v>
       </c>
       <c r="L18" t="n">
-        <v>0.0005491641092305831</v>
+        <v>0.0001413560819110566</v>
       </c>
       <c r="M18" t="n">
-        <v>0.009625919811351514</v>
+        <v>0.002021999440627103</v>
       </c>
       <c r="N18" t="n">
-        <v>1.000264703272669</v>
+        <v>1.000011679840014</v>
       </c>
       <c r="O18" t="n">
-        <v>0.01003571514612174</v>
+        <v>0.002108080142930467</v>
       </c>
       <c r="P18" t="n">
-        <v>84.57318335423429</v>
+        <v>90.81467374010907</v>
       </c>
       <c r="Q18" t="n">
-        <v>124.7960855748849</v>
+        <v>131.0375759607597</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>model_16_3_7</t>
+          <t>model_16_3_17</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.9999008859661731</v>
+        <v>0.9999956536380694</v>
       </c>
       <c r="C19" t="n">
-        <v>0.9989682398625221</v>
+        <v>0.9990914693149036</v>
       </c>
       <c r="D19" t="n">
-        <v>0.9994353602377994</v>
+        <v>0.9999803829454436</v>
       </c>
       <c r="E19" t="n">
-        <v>0.9995062445264448</v>
+        <v>0.9999950044923746</v>
       </c>
       <c r="F19" t="n">
-        <v>0.999661322969753</v>
+        <v>0.999987892112881</v>
       </c>
       <c r="G19" t="n">
-        <v>9.251859997416133e-05</v>
+        <v>4.057138078928856e-06</v>
       </c>
       <c r="H19" t="n">
-        <v>0.000963102799299815</v>
+        <v>0.0008480735146495981</v>
       </c>
       <c r="I19" t="n">
-        <v>0.0004035094802273351</v>
+        <v>2.000812250382407e-05</v>
       </c>
       <c r="J19" t="n">
-        <v>0.00016837796938249</v>
+        <v>5.040921006798866e-06</v>
       </c>
       <c r="K19" t="n">
-        <v>0.0002859437248049126</v>
+        <v>1.252452175531147e-05</v>
       </c>
       <c r="L19" t="n">
-        <v>0.0005533558805289667</v>
+        <v>0.0001392450551657073</v>
       </c>
       <c r="M19" t="n">
-        <v>0.009618658948843197</v>
+        <v>0.00201423386897571</v>
       </c>
       <c r="N19" t="n">
-        <v>1.000264304090205</v>
+        <v>1.000011590298482</v>
       </c>
       <c r="O19" t="n">
-        <v>0.01002814517366439</v>
+        <v>0.002099983974816924</v>
       </c>
       <c r="P19" t="n">
-        <v>84.57620170571637</v>
+        <v>90.83006547916385</v>
       </c>
       <c r="Q19" t="n">
-        <v>124.799103926367</v>
+        <v>131.0529676998145</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>model_16_3_6</t>
+          <t>model_16_3_18</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.9999010167907331</v>
+        <v>0.9999956818648695</v>
       </c>
       <c r="C20" t="n">
-        <v>0.9989646619114144</v>
+        <v>0.9990911500662597</v>
       </c>
       <c r="D20" t="n">
-        <v>0.9994340097403359</v>
+        <v>0.9999805192873141</v>
       </c>
       <c r="E20" t="n">
-        <v>0.9995154617198371</v>
+        <v>0.9999949703446922</v>
       </c>
       <c r="F20" t="n">
-        <v>0.9996626128558906</v>
+        <v>0.9999879426739385</v>
       </c>
       <c r="G20" t="n">
-        <v>9.2396480989949e-05</v>
+        <v>4.030789600053497e-06</v>
       </c>
       <c r="H20" t="n">
-        <v>0.0009664426596049135</v>
+        <v>0.0008483715192452071</v>
       </c>
       <c r="I20" t="n">
-        <v>0.0004044745885424935</v>
+        <v>1.986906264438601e-05</v>
       </c>
       <c r="J20" t="n">
-        <v>0.0001652347691752547</v>
+        <v>5.075379120350778e-06</v>
       </c>
       <c r="K20" t="n">
-        <v>0.0002848546788588741</v>
+        <v>1.247222088236839e-05</v>
       </c>
       <c r="L20" t="n">
-        <v>0.0005577180024804822</v>
+        <v>0.0001373420390465239</v>
       </c>
       <c r="M20" t="n">
-        <v>0.00961230882722507</v>
+        <v>0.002007682644257677</v>
       </c>
       <c r="N20" t="n">
-        <v>1.000263955224712</v>
+        <v>1.000011515027015</v>
       </c>
       <c r="O20" t="n">
-        <v>0.01002152471422242</v>
+        <v>0.002093153850899739</v>
       </c>
       <c r="P20" t="n">
-        <v>84.57884332913247</v>
+        <v>90.84309654132639</v>
       </c>
       <c r="Q20" t="n">
-        <v>124.8017455497831</v>
+        <v>131.065998761977</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>model_16_3_5</t>
+          <t>model_16_3_19</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.999901104924143</v>
+        <v>0.9999957052443977</v>
       </c>
       <c r="C21" t="n">
-        <v>0.9989606805104997</v>
+        <v>0.9990908581840229</v>
       </c>
       <c r="D21" t="n">
-        <v>0.9994325946838309</v>
+        <v>0.9999806385101675</v>
       </c>
       <c r="E21" t="n">
-        <v>0.9995249715426187</v>
+        <v>0.9999949391931053</v>
       </c>
       <c r="F21" t="n">
-        <v>0.9996639345170395</v>
+        <v>0.9999879862566454</v>
       </c>
       <c r="G21" t="n">
-        <v>9.231421232042219e-05</v>
+        <v>4.008965836751301e-06</v>
       </c>
       <c r="H21" t="n">
-        <v>0.0009701591225955984</v>
+        <v>0.0008486439785011085</v>
       </c>
       <c r="I21" t="n">
-        <v>0.0004054858327959606</v>
+        <v>1.974746307145237e-05</v>
       </c>
       <c r="J21" t="n">
-        <v>0.0001619917779884978</v>
+        <v>5.106813901491782e-06</v>
       </c>
       <c r="K21" t="n">
-        <v>0.0002837388053922292</v>
+        <v>1.242713848647208e-05</v>
       </c>
       <c r="L21" t="n">
-        <v>0.0005622487124443561</v>
+        <v>0.0001356237141184489</v>
       </c>
       <c r="M21" t="n">
-        <v>0.009608028534534137</v>
+        <v>0.002002240204558709</v>
       </c>
       <c r="N21" t="n">
-        <v>1.000263720202285</v>
+        <v>1.000011452681606</v>
       </c>
       <c r="O21" t="n">
-        <v>0.0100170622006102</v>
+        <v>0.002087479715275384</v>
       </c>
       <c r="P21" t="n">
-        <v>84.58062489734581</v>
+        <v>90.85395449195741</v>
       </c>
       <c r="Q21" t="n">
-        <v>124.8035271179964</v>
+        <v>131.076856712608</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>model_16_3_4</t>
+          <t>model_16_3_20</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.9999010361798801</v>
+        <v>0.9999957242476973</v>
       </c>
       <c r="C22" t="n">
-        <v>0.9989560110390723</v>
+        <v>0.9990905965806868</v>
       </c>
       <c r="D22" t="n">
-        <v>0.9994304687547371</v>
+        <v>0.9999807378398824</v>
       </c>
       <c r="E22" t="n">
-        <v>0.9995344044510482</v>
+        <v>0.9999949101248259</v>
       </c>
       <c r="F22" t="n">
-        <v>0.9996649397957125</v>
+        <v>0.9999880210481281</v>
       </c>
       <c r="G22" t="n">
-        <v>9.237838207221684e-05</v>
+        <v>3.991227090660813e-06</v>
       </c>
       <c r="H22" t="n">
-        <v>0.0009745178692069122</v>
+        <v>0.0008488881737322692</v>
       </c>
       <c r="I22" t="n">
-        <v>0.0004070050891450842</v>
+        <v>1.964615320883204e-05</v>
       </c>
       <c r="J22" t="n">
-        <v>0.0001587750157411613</v>
+        <v>5.136146436104547e-06</v>
       </c>
       <c r="K22" t="n">
-        <v>0.0002828900524431228</v>
+        <v>1.23911498224683e-05</v>
       </c>
       <c r="L22" t="n">
-        <v>0.0005670374071750601</v>
+        <v>0.0001340693071656698</v>
       </c>
       <c r="M22" t="n">
-        <v>0.009611367336243935</v>
+        <v>0.001997805568783112</v>
       </c>
       <c r="N22" t="n">
-        <v>1.00026390352032</v>
+        <v>1.00001140200614</v>
       </c>
       <c r="O22" t="n">
-        <v>0.01002054314202106</v>
+        <v>0.002082856287873858</v>
       </c>
       <c r="P22" t="n">
-        <v>84.579235133894</v>
+        <v>90.8628236656494</v>
       </c>
       <c r="Q22" t="n">
-        <v>124.8021373545446</v>
+        <v>131.0857258863</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>model_16_3_3</t>
+          <t>model_16_3_21</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.9999008620880585</v>
+        <v>0.9999957403412444</v>
       </c>
       <c r="C23" t="n">
-        <v>0.9989507222982409</v>
+        <v>0.9990903606231543</v>
       </c>
       <c r="D23" t="n">
-        <v>0.9994279800303871</v>
+        <v>0.9999808197895046</v>
       </c>
       <c r="E23" t="n">
-        <v>0.9995440682066851</v>
+        <v>0.9999948884149666</v>
       </c>
       <c r="F23" t="n">
-        <v>0.9996658381553547</v>
+        <v>0.9999880508603229</v>
       </c>
       <c r="G23" t="n">
-        <v>9.254088914596358e-05</v>
+        <v>3.976204470956059e-06</v>
       </c>
       <c r="H23" t="n">
-        <v>0.0009794546766241994</v>
+        <v>0.0008491084297316244</v>
       </c>
       <c r="I23" t="n">
-        <v>0.0004087836104892479</v>
+        <v>1.956256991266106e-05</v>
       </c>
       <c r="J23" t="n">
-        <v>0.0001554795311584424</v>
+        <v>5.158053656340314e-06</v>
       </c>
       <c r="K23" t="n">
-        <v>0.0002821315708238452</v>
+        <v>1.236031178450069e-05</v>
       </c>
       <c r="L23" t="n">
-        <v>0.0005719285317185567</v>
+        <v>0.0001326642424330314</v>
       </c>
       <c r="M23" t="n">
-        <v>0.009619817521448294</v>
+        <v>0.00199404224402495</v>
       </c>
       <c r="N23" t="n">
-        <v>1.000264367765177</v>
+        <v>1.000011359090015</v>
       </c>
       <c r="O23" t="n">
-        <v>0.01002935306910386</v>
+        <v>0.002078932750589585</v>
       </c>
       <c r="P23" t="n">
-        <v>84.57571993259539</v>
+        <v>90.87036568839088</v>
       </c>
       <c r="Q23" t="n">
-        <v>124.798622153246</v>
+        <v>131.0932679090415</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>model_16_3_2</t>
+          <t>model_16_3_22</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.99990042028264</v>
+        <v>0.9999957533316737</v>
       </c>
       <c r="C24" t="n">
-        <v>0.9989444212766313</v>
+        <v>0.9990901456242437</v>
       </c>
       <c r="D24" t="n">
-        <v>0.9994241952797031</v>
+        <v>0.9999808948876819</v>
       </c>
       <c r="E24" t="n">
-        <v>0.9995535325963402</v>
+        <v>0.9999948642615037</v>
       </c>
       <c r="F24" t="n">
-        <v>0.9996661477593538</v>
+        <v>0.9999880761028377</v>
       </c>
       <c r="G24" t="n">
-        <v>9.295329511114143e-05</v>
+        <v>3.96407847543067e-06</v>
       </c>
       <c r="H24" t="n">
-        <v>0.0009853364037138146</v>
+        <v>0.0008493091217772422</v>
       </c>
       <c r="I24" t="n">
-        <v>0.0004114883133521718</v>
+        <v>1.948597464563328e-05</v>
       </c>
       <c r="J24" t="n">
-        <v>0.0001522520333444083</v>
+        <v>5.182426694588202e-06</v>
       </c>
       <c r="K24" t="n">
-        <v>0.0002818701733482901</v>
+        <v>1.233420067011074e-05</v>
       </c>
       <c r="L24" t="n">
-        <v>0.0005771632100356337</v>
+        <v>0.0001314014010776326</v>
       </c>
       <c r="M24" t="n">
-        <v>0.0096412289212082</v>
+        <v>0.001990999366004588</v>
       </c>
       <c r="N24" t="n">
-        <v>1.00026554591296</v>
+        <v>1.00001132444887</v>
       </c>
       <c r="O24" t="n">
-        <v>0.01005167599647925</v>
+        <v>0.00207576033095227</v>
       </c>
       <c r="P24" t="n">
-        <v>84.56682678812648</v>
+        <v>90.87647428932308</v>
       </c>
       <c r="Q24" t="n">
-        <v>124.7897290087771</v>
+        <v>131.0993765099737</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>model_16_3_1</t>
+          <t>model_16_3_23</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.9998994715800472</v>
+        <v>0.9999957647030231</v>
       </c>
       <c r="C25" t="n">
-        <v>0.9989365524969882</v>
+        <v>0.9990899530084837</v>
       </c>
       <c r="D25" t="n">
-        <v>0.9994176105789677</v>
+        <v>0.9999809584037614</v>
       </c>
       <c r="E25" t="n">
-        <v>0.9995620605030542</v>
+        <v>0.9999948441936329</v>
       </c>
       <c r="F25" t="n">
-        <v>0.9996650832675272</v>
+        <v>0.9999880976281353</v>
       </c>
       <c r="G25" t="n">
-        <v>9.383886733830725e-05</v>
+        <v>3.953463819858684e-06</v>
       </c>
       <c r="H25" t="n">
-        <v>0.0009926815641111099</v>
+        <v>0.0008494889201343099</v>
       </c>
       <c r="I25" t="n">
-        <v>0.0004161939493151885</v>
+        <v>1.942119236673043e-05</v>
       </c>
       <c r="J25" t="n">
-        <v>0.0001493438901591624</v>
+        <v>5.202676999293394e-06</v>
       </c>
       <c r="K25" t="n">
-        <v>0.0002827689197371754</v>
+        <v>1.231193468301191e-05</v>
       </c>
       <c r="L25" t="n">
-        <v>0.0005829036778938364</v>
+        <v>0.0001302546443771097</v>
       </c>
       <c r="M25" t="n">
-        <v>0.009687046368130342</v>
+        <v>0.00198833191893574</v>
       </c>
       <c r="N25" t="n">
-        <v>1.000268075786541</v>
+        <v>1.000011294125272</v>
       </c>
       <c r="O25" t="n">
-        <v>0.01009944398697206</v>
+        <v>0.002072979325139325</v>
       </c>
       <c r="P25" t="n">
-        <v>84.54786284765858</v>
+        <v>90.88183689379579</v>
       </c>
       <c r="Q25" t="n">
-        <v>124.7707650683092</v>
+        <v>131.1047391144464</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>model_16_3_0</t>
+          <t>model_16_3_24</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.9998977661043942</v>
+        <v>0.9999957732449217</v>
       </c>
       <c r="C26" t="n">
-        <v>0.9989265948990923</v>
+        <v>0.9990897798337718</v>
       </c>
       <c r="D26" t="n">
-        <v>0.9994068850787086</v>
+        <v>0.9999810077181477</v>
       </c>
       <c r="E26" t="n">
-        <v>0.9995687805894985</v>
+        <v>0.9999948308699746</v>
       </c>
       <c r="F26" t="n">
-        <v>0.9996619012484931</v>
+        <v>0.9999881154415194</v>
       </c>
       <c r="G26" t="n">
-        <v>9.543085399861626e-05</v>
+        <v>3.94549033251495e-06</v>
       </c>
       <c r="H26" t="n">
-        <v>0.001001976544658916</v>
+        <v>0.0008496505711264018</v>
       </c>
       <c r="I26" t="n">
-        <v>0.0004238587319331857</v>
+        <v>1.937089489324468e-05</v>
       </c>
       <c r="J26" t="n">
-        <v>0.0001470522406075824</v>
+        <v>5.216121780841699e-06</v>
       </c>
       <c r="K26" t="n">
-        <v>0.000285455486270384</v>
+        <v>1.229350833704319e-05</v>
       </c>
       <c r="L26" t="n">
-        <v>0.0005896000128078387</v>
+        <v>0.0001292388613048028</v>
       </c>
       <c r="M26" t="n">
-        <v>0.009768871685031811</v>
+        <v>0.001986325837448366</v>
       </c>
       <c r="N26" t="n">
-        <v>1.000272623721616</v>
+        <v>1.000011271346875</v>
       </c>
       <c r="O26" t="n">
-        <v>0.01018475277701578</v>
+        <v>0.002070887840609871</v>
       </c>
       <c r="P26" t="n">
-        <v>84.51421722924366</v>
+        <v>90.88587463848864</v>
       </c>
       <c r="Q26" t="n">
-        <v>124.7371194498943</v>
+        <v>131.1087768591393</v>
       </c>
     </row>
   </sheetData>
